--- a/biology/Zoologie/Epictia_tenella/Epictia_tenella.xlsx
+++ b/biology/Zoologie/Epictia_tenella/Epictia_tenella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epictia tenella est une espèce de serpents de la famille des Leptotyphlopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epictia tenella est une espèce de serpents de la famille des Leptotyphlopidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Guyane, au Suriname, au Guyana, au Venezuela, à la Trinité, en Colombie au Pérou, en Bolivie, au Paraguay, au Brésil, au Uruguay et en Argentine.
 Elle a été observée une fois à Antigua. Sa présence est incertaine à Tobago.
@@ -543,9 +557,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour Adalsteinsson et al., 2009[2], Epictia albifrons et Epictia tenella sont deux espèces distinctes mais ReptileDB les considèrent comme synonymes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour Adalsteinsson et al., 2009, Epictia albifrons et Epictia tenella sont deux espèces distinctes mais ReptileDB les considèrent comme synonymes.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Epictia tenella[3] mesure 177 mm dont 11 mm pour la queue, et dont le diamètre au milieu du corps est de 3,5 mm.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Epictia tenella mesure 177 mm dont 11 mm pour la queue, et dont le diamètre au milieu du corps est de 3,5 mm.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Klauber, 1939 : Three new worm snakes of the genus Leptotyphlops. Transactions of the San Diego Society of Natural History, vol. 9, n. 14, p. 59-65 (texte intégral).</t>
         </is>
